--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -2710,14 +2710,10 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>work w/ Jerry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2773,10 +2769,14 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2840,12 +2840,13 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2907,16 +2908,10 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2988,7 +2983,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3047,10 +3042,14 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3110,7 +3109,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3177,7 +3176,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3240,7 +3239,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3303,7 +3302,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3362,7 +3361,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3430,7 +3429,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3485,7 +3484,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3533,21 +3532,9 @@
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3649,7 +3636,11 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3714,7 +3705,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3783,7 +3774,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3834,7 +3825,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3893,7 +3884,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
+          <t>1640 E SUMNER ST, SUITE 100</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3960,7 +3951,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>1640 E SUMNER ST, SUITE 100</t>
+          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4019,7 +4010,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
+          <t xml:space="preserve">APPROX 8:00/8:30 AM START </t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4066,7 +4057,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t xml:space="preserve">APPROX 8:00/8:30 AM START </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4121,7 +4112,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4176,7 +4167,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4231,7 +4222,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4284,11 +4275,7 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4338,9 +4325,22 @@
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4387,20 +4387,15 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4453,16 +4448,8 @@
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4540,7 +4527,11 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:00 AM OFFICE LEAVE TIME </t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4581,7 +4572,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:00 AM OFFICE LEAVE TIME </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4628,7 +4619,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4675,7 +4666,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4718,7 +4709,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
+          <t>7540 22ND AVE</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4769,7 +4760,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>7540 22ND AVE</t>
+          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4822,11 +4813,7 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
-        </is>
-      </c>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -4856,9 +4843,21 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
@@ -4895,21 +4894,9 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -5002,7 +4989,11 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -5051,7 +5042,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -5090,7 +5081,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -5129,7 +5120,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -5172,7 +5163,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -5215,7 +5206,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -5258,7 +5249,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -5301,7 +5292,7 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -5344,7 +5335,7 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -5387,7 +5378,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -5422,7 +5413,7 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -5479,11 +5470,7 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
@@ -5539,9 +5526,21 @@
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
@@ -5582,21 +5581,9 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
     </row>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -2813,7 +2813,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10:30</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -2014,7 +2014,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1213,10 +1213,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>@ Store, After cstore</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1357,7 +1361,7 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3337,7 +3341,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3396,15 +3400,10 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3456,10 +3455,15 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3511,7 +3515,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3558,14 +3562,10 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4026,9 +4026,21 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -4832,7 +4844,11 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>*Check in with Ashley after to see if needed at Pig Slinger</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -4870,21 +4886,9 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4921,9 +4925,21 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -5020,11 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5061,7 +5073,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5100,7 +5112,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5143,7 +5155,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5186,7 +5198,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5229,7 +5241,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5272,7 +5284,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5315,7 +5327,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5358,7 +5370,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5397,7 +5409,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5444,7 +5456,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5501,7 +5513,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5568,7 +5580,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5611,7 +5623,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5654,7 +5666,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5697,7 +5709,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5740,7 +5752,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5783,7 +5795,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5826,7 +5838,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5869,7 +5881,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5911,7 +5923,11 @@
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5937,21 +5953,9 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -5978,17 +5982,17 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
@@ -6017,12 +6021,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6045,6 +6049,45 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -544,7 +544,11 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Altima maintenance this day.  DJ will have the Black Camry</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -525,8 +525,16 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -540,8 +548,16 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -552,16 +568,40 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -575,24 +615,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,24 +686,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3497,16 +3497,8 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3621,7 +3613,11 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3666,7 +3662,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3709,7 +3705,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3769,7 +3765,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3834,11 +3830,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3902,8 +3894,16 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3955,12 +3955,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4012,16 +4012,8 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4138,8 +4130,16 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -4197,14 +4197,10 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -4255,7 +4251,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4310,7 +4306,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4365,7 +4361,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4416,7 +4412,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4480,7 +4476,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4535,7 +4531,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4590,7 +4586,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4633,7 +4629,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4672,7 +4668,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4715,7 +4711,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4762,7 +4758,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -4809,7 +4805,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4852,7 +4848,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4903,7 +4899,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4952,11 +4948,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -4998,9 +4990,21 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5027,17 +5031,17 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -5086,12 +5090,12 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5135,21 +5139,9 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5222,7 +5214,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -5263,7 +5259,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -5306,7 +5302,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -5349,7 +5345,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2731, PORTAGE - LIFO</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -5392,7 +5388,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FESTIVAL #2731, PORTAGE - LIFO</t>
+          <t>2915 NEW PINERY RD</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -5435,7 +5431,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2915 NEW PINERY RD</t>
+          <t>https://goo.gl/maps/Q9z3QD9T6xQ2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -5476,11 +5472,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Q9z3QD9T6xQ2</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -5518,9 +5510,21 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
@@ -5555,17 +5559,19 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5610,19 +5616,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -5679,17 +5683,17 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -5722,12 +5726,12 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5765,17 +5769,17 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -5808,12 +5812,12 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5851,12 +5855,12 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5894,12 +5898,12 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5937,12 +5941,12 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5980,17 +5984,18 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -6021,22 +6026,9 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5946,12 +5946,13 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -5982,22 +5983,9 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,14 +1345,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1412,7 +1408,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1488,10 +1484,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1568,14 +1568,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1643,7 +1639,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1714,10 +1710,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1884,12 +1884,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1940,22 +1941,9 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -2056,7 +2044,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2109,7 +2101,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2164,7 +2156,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S, GERMANTOWN</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2207,7 +2199,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>SENDIK'S, GERMANTOWN</t>
+          <t>N112 W15800 MEQUON RD</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2242,7 +2234,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>N112 W15800 MEQUON RD</t>
+          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2306,7 +2298,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NUJqE8qFKjS2</t>
+          <t>FULL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2358,18 +2350,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
+          <t xml:space="preserve">Driver,
+Red Camry
+</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>FULL RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2423,18 +2411,26 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2443,14 +2439,10 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Eric</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2486,26 +2478,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2514,7 +2502,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2545,19 +2533,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2569,10 +2557,15 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2600,19 +2593,19 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2624,13 +2617,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2660,19 +2652,19 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2684,7 +2676,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2724,26 +2716,18 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2797,12 +2781,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2851,20 +2835,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store, Until 10:30</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2916,24 +2908,24 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store, Until 10:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2984,19 +2976,19 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3059,19 +3051,19 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3130,19 +3122,19 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
+          <t>2415 WESTOWNE AVE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3197,19 +3189,19 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2415 WESTOWNE AVE</t>
+          <t>https://goo.gl/maps/SYenrFArvdC2</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3258,21 +3250,17 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/SYenrFArvdC2</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3324,25 +3312,25 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3389,19 +3377,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3452,18 +3436,22 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3503,20 +3491,25 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3558,25 +3551,20 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3622,12 +3610,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3635,7 +3623,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3669,22 +3657,22 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3712,12 +3700,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3726,8 +3714,16 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -3772,12 +3768,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3788,12 +3784,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3835,12 +3831,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3849,16 +3845,8 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3908,12 +3896,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3967,12 +3955,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3982,7 +3970,11 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -4018,12 +4010,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4035,7 +4027,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4077,12 +4069,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4094,7 +4086,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4142,26 +4134,14 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4206,13 +4186,17 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4259,7 +4243,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4267,7 +4251,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4314,7 +4298,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4322,7 +4306,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4369,7 +4353,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4377,7 +4361,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4418,17 +4402,13 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4481,14 +4461,22 @@
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4538,12 +4526,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4551,7 +4539,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4591,22 +4579,14 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4641,7 +4621,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4674,13 +4654,17 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4719,7 +4703,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4727,7 +4711,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4766,17 +4750,13 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -4813,14 +4793,26 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
@@ -4856,26 +4848,22 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4907,21 +4895,13 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>*Check in with Ashley after to see if needed at Pig Slinger</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
@@ -4952,11 +4932,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>*Check in with Ashley after to see if needed at Pig Slinger</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -5006,12 +4982,28 @@
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -5045,26 +5037,14 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5109,11 +5089,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -5144,7 +5120,11 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5181,7 +5161,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5224,7 +5204,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5267,7 +5247,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5310,7 +5290,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5353,7 +5333,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5396,7 +5376,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5439,7 +5419,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5478,7 +5458,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5529,7 +5509,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5578,7 +5558,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5633,7 +5613,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5700,7 +5680,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5743,7 +5723,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5786,7 +5766,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5829,7 +5809,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5872,7 +5852,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5915,7 +5895,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5959,7 +5939,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5990,7 +5970,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -6019,11 +5999,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -6049,9 +6025,21 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -6078,17 +6066,17 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
@@ -6117,12 +6105,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6145,45 +6133,6 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -2313,11 +2313,7 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -2613,7 +2613,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3139,9 +3139,21 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3150,7 +3162,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3217,7 +3229,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3266,11 +3278,7 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
@@ -3280,7 +3288,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3331,7 +3339,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3343,7 +3351,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3390,7 +3398,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3402,7 +3410,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3453,7 +3461,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3465,7 +3473,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3513,7 +3521,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3525,7 +3533,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3568,7 +3576,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3580,7 +3588,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3627,14 +3635,26 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sonia/Kim meet at 4:30 am</t>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3672,7 +3692,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Sonia/Kim meet at 4:30 am</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3722,29 +3746,12 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store, Wht Camry, (w/ Sonia),
-Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3792,24 +3799,25 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>@ Store, Wht Camry, (w/ Sonia),
+Equip</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3847,26 +3855,24 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe,
-Trainer</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3912,20 +3918,26 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe,
+Trainer</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3975,12 +3987,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3988,7 +4000,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>1640 E SUMNER ST, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4030,24 +4042,20 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>w/ Kim</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
+          <t>1640 E SUMNER ST, SUITE 100</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4089,24 +4097,24 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Kim</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t xml:space="preserve">APPROX 8:00/8:30 AM START </t>
+          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4144,12 +4152,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4161,7 +4169,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">APPROX 8:00/8:30 AM START </t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4199,12 +4207,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4216,7 +4224,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4254,12 +4262,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4271,7 +4279,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4309,12 +4317,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4326,7 +4334,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4364,12 +4372,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4379,7 +4387,11 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4411,12 +4423,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4425,22 +4437,9 @@
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4479,12 +4478,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4495,15 +4494,20 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4542,12 +4546,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4556,8 +4560,16 @@
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4587,9 +4599,21 @@
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4627,11 +4651,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM OFFICE LEAVE TIME </t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4666,17 +4686,13 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t xml:space="preserve">5:00 AM OFFICE LEAVE TIME </t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4715,7 +4731,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4723,7 +4739,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4758,7 +4774,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4766,7 +4782,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4813,7 +4829,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4821,7 +4837,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>7540 22ND AVE</t>
+          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4862,13 +4878,17 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+          <t>7540 22ND AVE</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4900,20 +4920,16 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -4935,25 +4951,21 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
@@ -5006,9 +5018,21 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
@@ -5046,11 +5070,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -5091,17 +5111,13 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -5130,7 +5146,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -5138,7 +5154,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -5169,7 +5185,7 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -5177,7 +5193,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -5212,7 +5228,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -5220,7 +5236,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -5255,7 +5271,7 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -5263,7 +5279,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
@@ -5298,7 +5314,7 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -5306,7 +5322,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W88" t="inlineStr"/>
@@ -5341,7 +5357,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -5349,7 +5365,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -5384,7 +5400,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -5392,7 +5408,7 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
@@ -5427,7 +5443,7 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -5435,7 +5451,7 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -5466,7 +5482,7 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -5474,7 +5490,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -5515,13 +5531,17 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -5563,24 +5583,16 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
@@ -5620,35 +5632,23 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
     </row>
@@ -5685,13 +5685,37 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
     </row>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -1580,14 +1580,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1719,9 +1715,21 @@
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -4045,11 +4053,7 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -1839,11 +1839,7 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
@@ -1905,7 +1901,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1956,7 +1952,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -2007,7 +2003,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2062,7 +2058,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>5740 WASHINGTON AVE</t>
+          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2117,7 +2113,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
+          <t>5740 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2172,7 +2168,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2213,7 +2209,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PARTIAL RESET-REMAPPED </t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2247,21 +2247,9 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2313,15 +2301,19 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
@@ -2366,12 +2358,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2438,12 +2430,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2501,12 +2493,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2556,20 +2548,15 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2616,17 +2603,18 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2675,12 +2663,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2738,12 +2726,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2797,12 +2785,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2864,12 +2852,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2935,12 +2923,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3003,12 +2991,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3078,12 +3066,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3149,12 +3137,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3226,9 +3214,21 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3345,11 +3345,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3406,7 +3402,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3469,7 +3465,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3529,7 +3525,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3584,7 +3580,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>W3195 VAN ROY RD</t>
+          <t>FESTIVAL #2716, APPLETON-DARBOY - LIFO</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3643,7 +3639,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
+          <t>W3195 VAN ROY RD</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3702,7 +3698,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sonia/Kim meet at 4:30 am</t>
+          <t>https://goo.gl/maps/57s41PSXiLJ2</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3755,7 +3751,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Sonia/Kim meet at 4:30 am</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3805,22 +3805,9 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store, Wht Camry, (w/ Sonia),
-Equip</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
@@ -3863,17 +3850,18 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>@ Store, Wht Camry, (w/ Sonia),
+Equip</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3926,19 +3914,17 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe,
-Trainer</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -3995,15 +3981,21 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe,
+Trainer</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
@@ -4050,10 +4042,14 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4101,19 +4097,11 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>w/ Kim</t>
-        </is>
-      </c>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
@@ -4156,17 +4144,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Kim</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4211,12 +4199,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4266,12 +4254,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4321,12 +4309,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4376,12 +4364,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4427,12 +4415,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4482,12 +4470,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4550,12 +4538,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4605,12 +4593,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4650,9 +4638,21 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -4733,11 +4733,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4778,7 +4774,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4833,7 +4829,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4884,7 +4880,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4925,7 +4921,11 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -4955,16 +4955,8 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -5018,8 +5010,16 @@
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
@@ -5113,11 +5113,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -5150,7 +5146,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -5189,7 +5185,7 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -5232,7 +5228,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -5275,7 +5271,7 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -5318,7 +5314,7 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -5361,7 +5357,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -5404,7 +5400,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -5447,7 +5443,7 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -5486,7 +5482,7 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -5537,7 +5533,7 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -5588,7 +5584,11 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
@@ -5634,21 +5634,9 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
@@ -5691,17 +5679,17 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
@@ -5756,9 +5744,21 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Milwaukee Schedule.xlsx
@@ -3751,11 +3751,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Sonia/Kim meet at 4:30 am</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3805,9 +3801,22 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, Wht Camry,
+Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
@@ -3850,18 +3859,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store, Wht Camry, (w/ Sonia),
-Equip</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3914,17 +3922,19 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>Driver,
+Santa Fe,
+Trainer</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -3981,21 +3991,15 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe,
-Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
@@ -4042,12 +4046,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4097,11 +4101,19 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
@@ -4144,17 +4156,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>w/ Kim</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4199,12 +4211,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4254,12 +4266,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4309,12 +4321,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4364,12 +4376,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4415,12 +4427,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4470,12 +4482,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4538,12 +4550,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4591,21 +4603,9 @@
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4638,21 +4638,9 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -4690,7 +4678,11 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4733,7 +4725,11 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>COCA-COLA, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4774,7 +4770,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4829,7 +4825,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4878,11 +4874,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>11800 W BROWN DEER RD</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4920,10 +4912,14 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3qRtjQQ4gbR2</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -5010,16 +5006,8 @@
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
@@ -5074,7 +5062,11 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -5113,7 +5105,11 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -5146,7 +5142,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -5185,7 +5181,7 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -5228,7 +5224,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -5271,7 +5267,7 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -5314,7 +5310,7 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -5357,7 +5353,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -5400,7 +5396,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -5443,7 +5439,7 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -5482,7 +5478,7 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -5531,11 +5527,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>25555 75TH ST</t>
-        </is>
-      </c>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
@@ -5583,13 +5575,21 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
@@ -5634,9 +5634,21 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
@@ -5677,21 +5689,9 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
@@ -5744,21 +5744,9 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
